--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_7_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_7_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3606825.584321468</v>
+        <v>3602493.099500777</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -664,10 +664,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>308.5871358789882</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>371.0883943592127</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
@@ -676,7 +676,7 @@
         <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -816,31 +816,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>59.66385641544559</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>106.0725670814544</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -870,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -907,16 +907,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>50.07167817132321</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>103.7424284844666</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1053,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>25.05231662148169</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>28.51033041214364</v>
       </c>
     </row>
     <row r="8">
@@ -1132,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>185.2302735225538</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>326.2396125556951</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1150,10 +1150,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,13 +1180,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1195,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>133.4548648132222</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>72.65793777463499</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1423,10 +1423,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576167</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1539,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1575,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>38.19083539427159</v>
+        <v>248.8079271025179</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1666,7 +1666,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1770,16 +1770,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -1815,13 +1815,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>105.6507867899569</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1906,7 +1906,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -2007,16 +2007,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>16.93966244919737</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712593</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2083,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2238,16 +2238,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>75.92936329650546</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>123.797182079703</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2478,25 +2478,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>120.7871326503973</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2617,7 +2617,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2715,25 +2715,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>93.59472601529558</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2955,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>139.7072979240953</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3012,7 +3012,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3186,16 +3186,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>143.4157347120542</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>177.6965697803346</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3280,10 +3280,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187865</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444136</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695288</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881285</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3423,16 +3423,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>62.14989839348932</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3441,10 +3441,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428172</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3502,13 +3502,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3517,10 +3517,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518785</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3599,7 +3599,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T39" t="n">
         <v>188.3046392154443</v>
@@ -3675,13 +3675,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856556</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>33.82891891787546</v>
+        <v>111.5512144998708</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3757,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576152</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3836,7 +3836,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T42" t="n">
         <v>188.3046392154443</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3909,7 +3909,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>70.0455488112424</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3918,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856556</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012171</v>
       </c>
       <c r="S43" t="n">
-        <v>0.4774956074570627</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3994,7 +3994,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4073,7 +4073,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T45" t="n">
         <v>188.3046392154443</v>
@@ -4134,16 +4134,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>73.98898794535489</v>
+        <v>133.1319933510077</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -4152,10 +4152,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856556</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012171</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1082.67330119093</v>
+        <v>1176.876864157142</v>
       </c>
       <c r="C2" t="n">
-        <v>713.7107842505179</v>
+        <v>807.9143472167302</v>
       </c>
       <c r="D2" t="n">
-        <v>402.0066065949742</v>
+        <v>449.6486486099797</v>
       </c>
       <c r="E2" t="n">
-        <v>402.0066065949742</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F2" t="n">
-        <v>395.0611058457707</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
         <v>53.94298182036445</v>
@@ -4333,16 +4333,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4360,22 +4360,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2212.181128500977</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V2" t="n">
-        <v>2212.181128500977</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W2" t="n">
-        <v>1859.412473230863</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="X2" t="n">
-        <v>1859.412473230863</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="Y2" t="n">
-        <v>1469.273141255051</v>
+        <v>1563.476704221264</v>
       </c>
     </row>
     <row r="3">
@@ -4400,7 +4400,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4415,16 +4415,16 @@
         <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>500.820796875036</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="C4" t="n">
-        <v>500.820796875036</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D4" t="n">
-        <v>393.6767897220517</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E4" t="n">
-        <v>393.6767897220517</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F4" t="n">
-        <v>393.6767897220517</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1249.712458167646</v>
+        <v>1408.645612988121</v>
       </c>
       <c r="C5" t="n">
-        <v>880.7499412272343</v>
+        <v>1408.645612988121</v>
       </c>
       <c r="D5" t="n">
-        <v>522.4842426204839</v>
+        <v>1050.379914381371</v>
       </c>
       <c r="E5" t="n">
-        <v>522.4842426204839</v>
+        <v>1050.379914381371</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>639.3940095917635</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4585,34 +4585,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>2366.086203674652</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="W5" t="n">
-        <v>2013.317548404538</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="X5" t="n">
-        <v>1639.851790143458</v>
+        <v>1408.645612988121</v>
       </c>
       <c r="Y5" t="n">
-        <v>1249.712458167646</v>
+        <v>1408.645612988121</v>
       </c>
     </row>
     <row r="6">
@@ -4643,19 +4643,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>340.388532134052</v>
+        <v>517.6822058285749</v>
       </c>
       <c r="C7" t="n">
-        <v>340.388532134052</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="D7" t="n">
-        <v>190.2718927217162</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E7" t="n">
-        <v>190.2718927217162</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>365.6939024587809</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>365.6939024587809</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>365.6939024587809</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>365.6939024587809</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>365.6939024587809</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>365.6939024587809</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>365.6939024587809</v>
+        <v>699.3306706588146</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1686.741202187451</v>
+        <v>1194.175505447095</v>
       </c>
       <c r="C8" t="n">
-        <v>1317.778685247039</v>
+        <v>1194.175505447095</v>
       </c>
       <c r="D8" t="n">
-        <v>959.5129866402885</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>959.5129866402885</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4822,34 +4822,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U8" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V8" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W8" t="n">
-        <v>2247.308246834948</v>
+        <v>2344.380435748109</v>
       </c>
       <c r="X8" t="n">
-        <v>1873.842488573869</v>
+        <v>1970.914677487029</v>
       </c>
       <c r="Y8" t="n">
-        <v>1873.842488573869</v>
+        <v>1580.775345511217</v>
       </c>
     </row>
     <row r="9">
@@ -4880,19 +4880,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>188.745875571094</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C10" t="n">
-        <v>188.745875571094</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D10" t="n">
-        <v>188.745875571094</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E10" t="n">
-        <v>188.745875571094</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
-        <v>188.745875571094</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>188.745875571094</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U10" t="n">
-        <v>409.5384547146241</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V10" t="n">
-        <v>409.5384547146241</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="W10" t="n">
-        <v>409.5384547146241</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="X10" t="n">
-        <v>409.5384547146241</v>
+        <v>625.3202087220412</v>
       </c>
       <c r="Y10" t="n">
-        <v>188.745875571094</v>
+        <v>404.5276295785111</v>
       </c>
     </row>
     <row r="11">
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611461</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004711</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406466</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168588</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
@@ -5038,10 +5038,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
@@ -5068,25 +5068,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5129,16 +5129,16 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1140.291933891999</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1767.889897446606</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>950.7540666811333</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C13" t="n">
-        <v>781.8178837532264</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D13" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F13" t="n">
         <v>484.8112968429803</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V13" t="n">
-        <v>1649.809252446351</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W13" t="n">
-        <v>1360.39208240939</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X13" t="n">
-        <v>1132.402531511373</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y13" t="n">
-        <v>1132.402531511373</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="14">
@@ -5287,16 +5287,16 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5314,10 +5314,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
         <v>3094.515198591809</v>
@@ -5357,19 +5357,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349511</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061503</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N15" t="n">
-        <v>1896.176478190825</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O15" t="n">
         <v>1896.176478190825</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
         <v>317.6151975578602</v>
@@ -5463,25 +5463,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2273.199413378161</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5497,13 +5497,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5512,13 +5512,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5530,13 +5530,13 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5554,10 +5554,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5591,31 +5591,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>739.5354516872161</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1336.913939313768</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1964.511902868375</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3045.561952449533</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C19" t="n">
-        <v>2876.625769521626</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D19" t="n">
-        <v>2726.50913010929</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E19" t="n">
-        <v>2578.596036526897</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F19" t="n">
-        <v>2561.485266376193</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>4507.978318053498</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T19" t="n">
-        <v>4288.376853076439</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U19" t="n">
-        <v>3999.301626420637</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V19" t="n">
-        <v>3744.61713821475</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W19" t="n">
-        <v>3455.19996817779</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X19" t="n">
-        <v>3227.210417279773</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y19" t="n">
-        <v>3227.210417279773</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="20">
@@ -5734,28 +5734,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5831,22 +5831,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349513</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M21" t="n">
-        <v>1520.445529061503</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>2148.04349261611</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>2148.04349261611</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>878.3568999154069</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>709.4207169875</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D22" t="n">
-        <v>632.7243904253733</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5937,25 +5937,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T22" t="n">
-        <v>2160.315914855604</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U22" t="n">
-        <v>1871.240688199802</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1616.556199993915</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1327.139029956954</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>1099.149479058937</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>878.3568999154069</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5980,28 +5980,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.422291068009</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C24" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D24" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G24" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>2231.588527385791</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>2453.684166529967</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>2453.684166529967</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>3051.062654156519</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>3678.660617711126</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>4230.570347950413</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S24" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T24" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U24" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V24" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W24" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X24" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y24" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>391.8463960427007</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>241.729756630365</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E25" t="n">
-        <v>93.81666304797187</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F25" t="n">
-        <v>93.81666304797187</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6202,43 +6202,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.422291068009</v>
@@ -6259,19 +6259,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6305,22 +6305,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637307</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1814.118720444889</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>734.6461798836018</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>640.1060525954244</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000582</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>916.2946447138415</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6451,34 +6451,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6542,25 +6542,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349513</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M30" t="n">
-        <v>949.9304447718132</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N30" t="n">
-        <v>1577.52840832642</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>803.2707707770323</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>634.3345878491255</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>484.2179484367897</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000582</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1433.70136564882</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1205.711814750802</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>984.9192356072721</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6697,13 +6697,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6712,10 +6712,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6782,25 +6782,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>739.5354516872161</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M33" t="n">
-        <v>1336.913939313768</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N33" t="n">
-        <v>1964.511902868375</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O33" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>550.637687073287</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C34" t="n">
-        <v>550.637687073287</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D34" t="n">
-        <v>550.637687073287</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>2267.47159895366</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138415</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703114</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="35">
@@ -6916,70 +6916,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168622</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362684</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075801</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7004,40 +7004,40 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G36" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K36" t="n">
-        <v>245.2306927803938</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>315.9123021921476</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>913.2907898186995</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1540.888753373306</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
-        <v>2092.798483612593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2876.594459243706</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>2876.594459243706</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>2876.594459243706</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>2728.681365661313</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>2728.681365661313</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>2561.485266376193</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>3677.571434467152</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>3388.154264430192</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>3160.164713532175</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>2939.372134388645</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168595</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068007</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="39">
@@ -7247,22 +7247,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756264</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468469</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349513</v>
+        <v>776.1751066403302</v>
       </c>
       <c r="M39" t="n">
-        <v>1520.445529061503</v>
+        <v>1373.553594266882</v>
       </c>
       <c r="N39" t="n">
         <v>2001.151557821488</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>707.672526468518</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C40" t="n">
-        <v>538.7363435406111</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D40" t="n">
-        <v>388.6197041282753</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E40" t="n">
-        <v>240.7066105458822</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F40" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1613.78619868161</v>
       </c>
       <c r="X40" t="n">
-        <v>1110.113570442288</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y40" t="n">
-        <v>889.3209912987577</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="41">
@@ -7405,16 +7405,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7423,25 +7423,25 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U41" t="n">
         <v>4151.812499466573</v>
@@ -7450,10 +7450,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7484,34 +7484,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756264</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>280.8495004245718</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>776.1751066403302</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438171</v>
+        <v>1373.553594266882</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263526</v>
+        <v>1022.530292372932</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356194</v>
+        <v>853.5941094450246</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232836</v>
+        <v>703.4774700326889</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408905</v>
+        <v>555.5643764502958</v>
       </c>
       <c r="F43" t="n">
         <v>484.8112968429802</v>
@@ -7566,55 +7566,55 @@
         <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.435061037252</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T43" t="n">
-        <v>2159.833596060193</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="U43" t="n">
-        <v>1870.758369404391</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="V43" t="n">
-        <v>1616.073881198504</v>
+        <v>1942.378057281679</v>
       </c>
       <c r="W43" t="n">
-        <v>1326.656711161544</v>
+        <v>1652.960887244719</v>
       </c>
       <c r="X43" t="n">
-        <v>1098.667160263526</v>
+        <v>1424.971336346701</v>
       </c>
       <c r="Y43" t="n">
-        <v>1098.667160263526</v>
+        <v>1204.178757203171</v>
       </c>
     </row>
     <row r="44">
@@ -7639,37 +7639,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192585</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111704</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7684,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7721,31 +7721,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756264</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468469</v>
       </c>
       <c r="L45" t="n">
-        <v>589.1422692637307</v>
+        <v>1072.713683962605</v>
       </c>
       <c r="M45" t="n">
-        <v>1186.520756890282</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N45" t="n">
-        <v>1814.118720444889</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O45" t="n">
-        <v>2366.028450684176</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P45" t="n">
-        <v>2366.028450684176</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>801.6918836311994</v>
+        <v>916.2946447138402</v>
       </c>
       <c r="C46" t="n">
-        <v>632.7557007032925</v>
+        <v>916.2946447138402</v>
       </c>
       <c r="D46" t="n">
-        <v>482.6390612909568</v>
+        <v>766.1780053015044</v>
       </c>
       <c r="E46" t="n">
-        <v>407.9027098310023</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138402</v>
       </c>
       <c r="Y46" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138402</v>
       </c>
     </row>
   </sheetData>
@@ -8057,13 +8057,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>327.4218609627882</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8075,7 +8075,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>275.0442842992665</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8236,7 +8236,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
-        <v>212.3149906599048</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8303,10 +8303,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>422.2865794093296</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.906554245176</v>
+        <v>435.923890002883</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -9652,7 +9652,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>-1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9883,7 +9883,7 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>-1.591615728102624e-12</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -10114,7 +10114,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>-1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -10366,7 +10366,7 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>-8.232097024679733e-13</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -10600,7 +10600,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>-1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -11305,7 +11305,7 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>3.069544618483633e-12</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -23427,7 +23427,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23463,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>213.9468079295564</v>
+        <v>3.329716221310065</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23658,16 +23658,16 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23703,13 +23703,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>111.7546635373313</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23895,16 +23895,16 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>128.4813855737339</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23940,7 +23940,7 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>72.11969353038532</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24126,16 +24126,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>72.6861097217069</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>57.22910392194156</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24366,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>46.45968844823057</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>146.8157004124962</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24603,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>73.65209508333226</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>6.726664722473885</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24900,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25074,16 +25074,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>36.41624546988314</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>39.70888054695368</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25311,16 +25311,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>117.682081788448</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.22910392194217</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25563,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012171</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>191.8807364711617</v>
+        <v>114.1584408891663</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25797,7 +25797,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>75.37549921168885</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25836,13 +25836,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>180.5487903941875</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26022,16 +26022,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>72.44497470121428</v>
+        <v>13.30196929556143</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>670165.5524993414</v>
+        <v>670165.5524993415</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>670165.5524993415</v>
+        <v>670165.5524993414</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>670165.5524993415</v>
+        <v>670165.5524993414</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>670165.5524993413</v>
+        <v>670165.5524993414</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>670165.5524993414</v>
+        <v>670165.5524993413</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>670165.5524993414</v>
+        <v>670165.5524993415</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>670165.5524993414</v>
+        <v>670165.5524993413</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>670165.5524993413</v>
+        <v>670165.5524993415</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>670165.5524993413</v>
+        <v>670165.5524993414</v>
       </c>
     </row>
   </sheetData>
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>759463.6371244625</v>
+        <v>759463.6371244622</v>
       </c>
       <c r="C2" t="n">
         <v>759463.6371244623</v>
@@ -26322,40 +26322,40 @@
         <v>759463.6371244621</v>
       </c>
       <c r="E2" t="n">
-        <v>746610.6047132552</v>
+        <v>746610.6047132555</v>
       </c>
       <c r="F2" t="n">
-        <v>746610.6047132553</v>
+        <v>746610.6047132554</v>
       </c>
       <c r="G2" t="n">
-        <v>746610.6047132553</v>
+        <v>746610.6047132554</v>
       </c>
       <c r="H2" t="n">
-        <v>746610.6047132553</v>
+        <v>746610.6047132557</v>
       </c>
       <c r="I2" t="n">
-        <v>746610.6047132552</v>
+        <v>746610.6047132555</v>
       </c>
       <c r="J2" t="n">
         <v>746610.6047132552</v>
       </c>
       <c r="K2" t="n">
-        <v>746610.6047132552</v>
+        <v>746610.6047132555</v>
       </c>
       <c r="L2" t="n">
+        <v>746610.6047132554</v>
+      </c>
+      <c r="M2" t="n">
+        <v>746610.6047132555</v>
+      </c>
+      <c r="N2" t="n">
+        <v>746610.6047132557</v>
+      </c>
+      <c r="O2" t="n">
         <v>746610.6047132553</v>
       </c>
-      <c r="M2" t="n">
+      <c r="P2" t="n">
         <v>746610.6047132553</v>
-      </c>
-      <c r="N2" t="n">
-        <v>746610.6047132554</v>
-      </c>
-      <c r="O2" t="n">
-        <v>746610.6047132554</v>
-      </c>
-      <c r="P2" t="n">
-        <v>746610.6047132552</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26377,7 +26377,7 @@
         <v>944372.7777577088</v>
       </c>
       <c r="F3" t="n">
-        <v>2.574418839027077e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>1.767800767993322e-10</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>124208.5107080585</v>
+        <v>124208.5107080584</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,40 +26426,40 @@
         <v>201064.5059277315</v>
       </c>
       <c r="E4" t="n">
-        <v>5067.592601670409</v>
+        <v>5067.592601670437</v>
       </c>
       <c r="F4" t="n">
         <v>5067.592601670437</v>
       </c>
       <c r="G4" t="n">
-        <v>5067.592601670438</v>
+        <v>5067.592601670437</v>
       </c>
       <c r="H4" t="n">
-        <v>5067.592601670438</v>
+        <v>5067.592601670437</v>
       </c>
       <c r="I4" t="n">
-        <v>5067.592601670418</v>
+        <v>5067.592601670437</v>
       </c>
       <c r="J4" t="n">
-        <v>5067.592601670414</v>
+        <v>5067.592601670437</v>
       </c>
       <c r="K4" t="n">
-        <v>5067.592601670416</v>
+        <v>5067.592601670437</v>
       </c>
       <c r="L4" t="n">
-        <v>5067.592601670422</v>
+        <v>5067.592601670437</v>
       </c>
       <c r="M4" t="n">
-        <v>5067.592601670418</v>
+        <v>5067.59260167056</v>
       </c>
       <c r="N4" t="n">
-        <v>5067.592601670416</v>
+        <v>5067.592601670519</v>
       </c>
       <c r="O4" t="n">
-        <v>5067.592601670438</v>
+        <v>5067.592601670476</v>
       </c>
       <c r="P4" t="n">
-        <v>5067.592601670437</v>
+        <v>5067.59260167048</v>
       </c>
     </row>
     <row r="5">
@@ -26472,10 +26472,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-114427.8260812229</v>
+        <v>-114427.8260812233</v>
       </c>
       <c r="C6" t="n">
         <v>475540.0531333213</v>
@@ -26530,40 +26530,40 @@
         <v>475540.0531333211</v>
       </c>
       <c r="E6" t="n">
-        <v>-303952.2954700312</v>
+        <v>-304299.6747243878</v>
       </c>
       <c r="F6" t="n">
-        <v>640420.4822876778</v>
+        <v>640073.103033321</v>
       </c>
       <c r="G6" t="n">
-        <v>640420.4822876776</v>
+        <v>640073.1030333207</v>
       </c>
       <c r="H6" t="n">
-        <v>640420.4822876778</v>
+        <v>640073.1030333212</v>
       </c>
       <c r="I6" t="n">
-        <v>640420.4822876777</v>
+        <v>640073.1030333212</v>
       </c>
       <c r="J6" t="n">
-        <v>463997.2630950846</v>
+        <v>463649.8838407277</v>
       </c>
       <c r="K6" t="n">
-        <v>640420.4822876777</v>
+        <v>640073.1030333211</v>
       </c>
       <c r="L6" t="n">
-        <v>640420.4822876778</v>
+        <v>640073.103033321</v>
       </c>
       <c r="M6" t="n">
-        <v>516211.9715796193</v>
+        <v>515864.5923252625</v>
       </c>
       <c r="N6" t="n">
-        <v>640420.4822876779</v>
+        <v>640073.1030333214</v>
       </c>
       <c r="O6" t="n">
-        <v>640420.4822876779</v>
+        <v>640073.1030333209</v>
       </c>
       <c r="P6" t="n">
-        <v>640420.4822876777</v>
+        <v>640073.1030333207</v>
       </c>
     </row>
   </sheetData>
@@ -26709,22 +26709,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>9.65407064635154e-14</v>
+      </c>
+      <c r="N2" t="n">
+        <v>6.436047097567693e-14</v>
+      </c>
+      <c r="O2" t="n">
         <v>3.218023548783847e-14</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26773,13 +26773,13 @@
         <v>1367.975500341674</v>
       </c>
       <c r="N3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="O3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="P3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
     </row>
     <row r="4">
@@ -26792,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26919,7 +26919,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26940,7 +26940,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>9.65407064635154e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>498.4210153450928</v>
+        <v>498.4210153450927</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450928</v>
+        <v>498.4210153450922</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27156,7 +27156,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450928</v>
+        <v>498.4210153450927</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,10 +27384,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>46.09590574169471</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>10.84197571304912</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27396,7 +27396,7 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -27432,13 +27432,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,31 +27536,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1681237664917</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>42.54290593675793</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,13 +27584,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27618,7 +27618,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27627,16 +27627,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>356.8043675703883</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>310.0417415363283</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,19 +27773,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>154.7796635604556</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27794,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,10 +27821,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>190.0743229399511</v>
       </c>
     </row>
     <row r="8">
@@ -27852,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>197.5035681409268</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>28.44342906498781</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27870,10 +27870,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,13 +27900,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -27915,13 +27915,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28028,13 +28028,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>22.71602402857292</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28067,7 +28067,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28076,7 +28076,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>153.0517176144022</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28143,7 +28143,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>-6.107776353646526e-13</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -30000,10 +30000,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>9.65407064635154e-14</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>9.65407064635154e-14</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30036,13 +30036,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>2.411577144875051e-12</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>9.65407064635154e-14</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30222,13 +30222,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -30237,7 +30237,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>1.607718096583367e-12</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30513,7 +30513,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>8.682195192673605e-13</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31849,19 +31849,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>210.3948924365567</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32077,10 +32077,10 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
@@ -32089,10 +32089,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>510.8679233250724</v>
+        <v>139.5228722182831</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214698</v>
@@ -32311,7 +32311,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32320,7 +32320,7 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>300.5543663814921</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862122</v>
@@ -32329,7 +32329,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32338,7 +32338,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742439</v>
@@ -32551,10 +32551,10 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>175.6052721551105</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473073</v>
@@ -32566,10 +32566,10 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>543.0832917018706</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>362.1804684129206</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,34 +33016,34 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>169.2687847673334</v>
+        <v>620.1193660647499</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33502,37 +33502,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>302.3396059822671</v>
+        <v>441.0292693655512</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>209.9499448422519</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817573</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162558</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159422</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236505</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.873223366922</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,31 +33964,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422584</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>339.3493584601604</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862118</v>
       </c>
       <c r="N39" t="n">
-        <v>616.9033572954392</v>
+        <v>765.2790490071782</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437241</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,46 +34046,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817573</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162558</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159422</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236505</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.873223366922</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>175.6052721551119</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M42" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862118</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071782</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437241</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,46 +34283,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817573</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162558</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159422</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236505</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.873223366922</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422584</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>416.4300581532633</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437241</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q45" t="n">
-        <v>328.9038320421819</v>
+        <v>375.5996128485289</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,46 +34520,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34783,19 +34783,19 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>365.2844632307148</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>296.2227415328939</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -34956,7 +34956,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35023,16 +35023,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>486.0228424856235</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,13 +35263,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355128</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35421,7 +35421,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
         <v>696.488651224316</v>
@@ -35497,19 +35497,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>68.26085851453838</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35725,10 +35725,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
@@ -35737,10 +35737,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>379.5262112417391</v>
+        <v>8.181160134949776</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071395</v>
@@ -35907,7 +35907,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,7 +35968,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>161.9999866016179</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35977,7 +35977,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -35986,7 +35986,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36199,10 +36199,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>37.76383318075146</v>
       </c>
       <c r="L21" t="n">
         <v>500.3288951674331</v>
@@ -36214,10 +36214,10 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>409.1088842875403</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243148</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>224.3390294385616</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902934</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,25 +36673,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367756</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>27.13475084531504</v>
+        <v>477.9853321427316</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683802</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37150,28 +37150,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>163.7852262023929</v>
+        <v>302.474889585677</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243148</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>71.39556506237767</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317199</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367768</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462675</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902944</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193513</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924725</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902403</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,22 +37621,22 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678994</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>200.7949786802862</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N39" t="n">
-        <v>485.5616452121058</v>
+        <v>633.9373369238449</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992796</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P40" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317199</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367768</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902944</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193513</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924725</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902403</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>37.7638331807529</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238449</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992796</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P43" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317199</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367768</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902975</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193513</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924725</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902403</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678994</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>274.296024231245</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992796</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q45" t="n">
-        <v>188.9220579561604</v>
+        <v>235.6178387625074</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P46" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_7_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_7_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3602493.099500777</v>
+        <v>3604253.629803562</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -661,16 +661,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>371.0883943592127</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>312.8345196672025</v>
       </c>
       <c r="G2" t="n">
         <v>13.784170020795</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -715,7 +715,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -901,22 +901,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>103.7424284844666</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,19 +943,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>133.8265139465293</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -964,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1059,13 +1059,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>25.31590541686257</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>28.51033041214364</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1135,13 +1135,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>326.2396125556951</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>337.4550179536797</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1195,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1290,25 +1290,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>30.60408762095434</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1356,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>72.65793777463499</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1530,13 +1530,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>99.70681342859956</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1545,7 +1545,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -1575,25 +1575,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>248.8079271025179</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1666,7 +1666,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1770,7 +1770,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>27.02919805176109</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>177.6965697803346</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1906,7 +1906,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -2001,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2019,10 +2019,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>114.2821160880066</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>108.9065924712593</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>123.797182079703</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>147.6895341487364</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2481,7 +2481,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>1.799772605716168</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2493,10 +2493,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2718,19 +2718,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>19.91555826189108</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2964,10 +2964,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3195,10 +3195,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>31.26260713376613</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3240,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>177.6965697803346</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3274,16 +3274,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722633</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,22 +3316,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695288</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3441,7 +3441,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428172</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3502,13 +3502,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.803338518785</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444138</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695534</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3599,7 +3599,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T39" t="n">
         <v>188.3046392154443</v>
@@ -3666,13 +3666,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856556</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>111.5512144998708</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3757,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695534</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576152</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3836,7 +3836,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T42" t="n">
         <v>188.3046392154443</v>
@@ -3900,25 +3900,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>70.0455488112424</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856556</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012171</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3994,7 +3994,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695534</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4073,7 +4073,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T45" t="n">
         <v>188.3046392154443</v>
@@ -4134,19 +4134,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>133.1319933510077</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856556</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012171</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1176.876864157142</v>
+        <v>923.1150787952338</v>
       </c>
       <c r="C2" t="n">
-        <v>807.9143472167302</v>
+        <v>923.1150787952338</v>
       </c>
       <c r="D2" t="n">
-        <v>449.6486486099797</v>
+        <v>923.1150787952338</v>
       </c>
       <c r="E2" t="n">
-        <v>74.81188663097703</v>
+        <v>537.3268261969895</v>
       </c>
       <c r="F2" t="n">
-        <v>67.86638588177355</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4333,10 +4333,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4363,19 +4363,19 @@
         <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2247.308246834948</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1916.245359491378</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1563.476704221264</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1563.476704221264</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y2" t="n">
-        <v>1563.476704221264</v>
+        <v>1309.714918859356</v>
       </c>
     </row>
     <row r="3">
@@ -4415,25 +4415,25 @@
         <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1408.645612988121</v>
+        <v>1191.835263233623</v>
       </c>
       <c r="C5" t="n">
-        <v>1408.645612988121</v>
+        <v>1191.835263233623</v>
       </c>
       <c r="D5" t="n">
-        <v>1050.379914381371</v>
+        <v>1191.835263233623</v>
       </c>
       <c r="E5" t="n">
-        <v>1050.379914381371</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F5" t="n">
-        <v>639.3940095917635</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036446</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2561.970794102537</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2561.970794102537</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862886</v>
+        <v>2308.209008740628</v>
       </c>
       <c r="V5" t="n">
-        <v>2134.880026519315</v>
+        <v>2308.209008740628</v>
       </c>
       <c r="W5" t="n">
-        <v>1782.111371249201</v>
+        <v>1955.440353470514</v>
       </c>
       <c r="X5" t="n">
-        <v>1408.645612988121</v>
+        <v>1581.974595209434</v>
       </c>
       <c r="Y5" t="n">
-        <v>1408.645612988121</v>
+        <v>1191.835263233623</v>
       </c>
     </row>
     <row r="6">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>517.6822058285749</v>
+        <v>546.4805193761947</v>
       </c>
       <c r="C7" t="n">
-        <v>348.7460229006679</v>
+        <v>377.5443364482878</v>
       </c>
       <c r="D7" t="n">
-        <v>348.7460229006679</v>
+        <v>227.4276970359521</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>79.51460345355898</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036446</v>
+        <v>79.51460345355898</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036446</v>
+        <v>79.51460345355898</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036446</v>
+        <v>79.51460345355898</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036446</v>
+        <v>79.51460345355898</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036446</v>
@@ -4770,7 +4770,7 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>699.3306706588146</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="8">
@@ -4780,13 +4780,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1194.175505447095</v>
+        <v>1546.94416071721</v>
       </c>
       <c r="C8" t="n">
-        <v>1194.175505447095</v>
+        <v>1177.981643776798</v>
       </c>
       <c r="D8" t="n">
-        <v>864.6405432696254</v>
+        <v>819.7159451700475</v>
       </c>
       <c r="E8" t="n">
         <v>478.8522906713811</v>
@@ -4843,13 +4843,13 @@
         <v>2697.149091018223</v>
       </c>
       <c r="W8" t="n">
-        <v>2344.380435748109</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="X8" t="n">
-        <v>1970.914677487029</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y8" t="n">
-        <v>1580.775345511217</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="9">
@@ -4883,19 +4883,19 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>222.8791647482714</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036446</v>
+        <v>529.7758821321495</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036446</v>
+        <v>379.6592427198137</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036446</v>
+        <v>231.7461491374206</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036446</v>
+        <v>84.85620163951026</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>84.85620163951026</v>
       </c>
       <c r="H10" t="n">
         <v>53.94298182036446</v>
@@ -5004,10 +5004,10 @@
         <v>698.7120650600564</v>
       </c>
       <c r="X10" t="n">
-        <v>625.3202087220412</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="Y10" t="n">
-        <v>404.5276295785111</v>
+        <v>698.7120650600564</v>
       </c>
     </row>
     <row r="11">
@@ -5035,13 +5035,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
@@ -5050,13 +5050,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5132,7 +5132,7 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>803.8641191832229</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C13" t="n">
-        <v>634.927936255316</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="D13" t="n">
-        <v>484.8112968429803</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1723.711884091971</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1434.29471405501</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1206.305163156993</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y13" t="n">
-        <v>985.5125840134626</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="14">
@@ -5260,31 +5260,31 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
         <v>2206.55866301478</v>
@@ -5293,10 +5293,10 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5360,22 +5360,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1336.167399417937</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
         <v>317.6151975578602</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2267.47159895366</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="17">
@@ -5497,13 +5497,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5512,13 +5512,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5527,16 +5527,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5554,10 +5554,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5594,19 +5594,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>653.7474797708871</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C19" t="n">
-        <v>484.8112968429802</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429802</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429802</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>209.2531439449482</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5734,43 +5734,43 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5834,16 +5834,16 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>280.8495004245705</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="23">
@@ -5998,13 +5998,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6074,22 +6074,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6129,19 +6129,19 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000583</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6223,13 +6223,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6238,7 +6238,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.422291068009</v>
@@ -6308,25 +6308,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2443.97263649114</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6384,52 +6384,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2426.846358063199</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="29">
@@ -6460,31 +6460,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6548,19 +6548,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L30" t="n">
-        <v>243.4633055756266</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M30" t="n">
-        <v>716.6687843969308</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6621,52 +6621,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362683</v>
@@ -6697,13 +6697,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6712,13 +6712,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
         <v>4562.265728852255</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6785,19 +6785,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>542.9134462654469</v>
+        <v>352.5519571452613</v>
       </c>
       <c r="M33" t="n">
-        <v>1140.291933891999</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N33" t="n">
-        <v>1767.889897446606</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O33" t="n">
-        <v>2319.799627685893</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>803.8641191832229</v>
+        <v>983.3556038098242</v>
       </c>
       <c r="C34" t="n">
-        <v>634.927936255316</v>
+        <v>814.4194208819173</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8112968429803</v>
+        <v>664.3027814695815</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429803</v>
+        <v>516.3896878871884</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T34" t="n">
-        <v>2267.47159895366</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.396372297858</v>
+        <v>2157.887856924459</v>
       </c>
       <c r="V34" t="n">
-        <v>1723.711884091971</v>
+        <v>1903.203368718572</v>
       </c>
       <c r="W34" t="n">
-        <v>1434.29471405501</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X34" t="n">
-        <v>1206.305163156993</v>
+        <v>1385.796647783594</v>
       </c>
       <c r="Y34" t="n">
-        <v>985.5125840134626</v>
+        <v>1165.004068640064</v>
       </c>
     </row>
     <row r="35">
@@ -6913,55 +6913,55 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168622</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075801</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
         <v>4606.285157492579</v>
@@ -6970,19 +6970,19 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="36">
@@ -7001,37 +7001,37 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G36" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004711</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168595</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068007</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,28 +7247,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756264</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468469</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>776.1751066403302</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1373.553594266882</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1098.667160263526</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356194</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232836</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.96308358026</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
-        <v>2446.96308358026</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>2157.887856924458</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1903.203368718571</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1613.78619868161</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>1501.108204237296</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>1280.315625093766</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7402,19 +7402,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797183</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7426,22 +7426,22 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
         <v>4151.812499466573</v>
@@ -7484,25 +7484,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756264</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>280.8495004245718</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>776.1751066403302</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1373.553594266882</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1022.530292372932</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>853.5941094450246</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="D43" t="n">
-        <v>703.4774700326889</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E43" t="n">
-        <v>555.5643764502958</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487566</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2197.062545487566</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>2197.062545487566</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1942.378057281679</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1652.960887244719</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1424.971336346701</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1204.178757203171</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7624,52 +7624,52 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192585</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7721,31 +7721,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756264</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468469</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962605</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1344.266747951538</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>916.2946447138402</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>916.2946447138402</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>766.1780053015044</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832662</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487566</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510507</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854705</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648818</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138402</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>916.2946447138402</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8063,7 +8063,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>327.4218609627882</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8543,10 +8543,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>435.923890002883</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783519</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -9886,7 +9886,7 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -10369,7 +10369,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>-9.663381206337363e-13</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>1.335820343228988e-12</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11305,7 +11305,7 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>3.069544618483633e-12</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -23418,13 +23418,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>67.54000767002827</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23433,7 +23433,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23463,25 +23463,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>3.329716221310065</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23658,7 +23658,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23667,7 +23667,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>39.70888054695368</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23889,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>26.01259675821728</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>72.11969353038532</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,13 +24177,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>57.22910392194156</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24369,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>146.8157004124962</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.45968844823058</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24852,13 +24852,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25083,10 +25083,10 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>114.1584408891651</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>39.70888054695368</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194217</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25554,13 +25554,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012171</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>114.1584408891663</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25788,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>43.2652634529499</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>75.37549921168885</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,10 +25839,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26022,19 +26022,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>13.30196929556143</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>670165.5524993415</v>
+        <v>670165.5524993413</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>670165.5524993414</v>
+        <v>670165.5524993415</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>670165.5524993414</v>
+        <v>670165.5524993413</v>
       </c>
     </row>
     <row r="10">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>670165.5524993415</v>
+        <v>670165.5524993413</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>670165.5524993414</v>
+        <v>670165.5524993413</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>670165.5524993414</v>
+        <v>670165.5524993413</v>
       </c>
     </row>
   </sheetData>
@@ -26316,25 +26316,25 @@
         <v>759463.6371244622</v>
       </c>
       <c r="C2" t="n">
-        <v>759463.6371244623</v>
+        <v>759463.6371244621</v>
       </c>
       <c r="D2" t="n">
-        <v>759463.6371244621</v>
+        <v>759463.6371244622</v>
       </c>
       <c r="E2" t="n">
+        <v>746610.6047132554</v>
+      </c>
+      <c r="F2" t="n">
         <v>746610.6047132555</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>746610.6047132552</v>
+      </c>
+      <c r="H2" t="n">
+        <v>746610.6047132553</v>
+      </c>
+      <c r="I2" t="n">
         <v>746610.6047132554</v>
-      </c>
-      <c r="G2" t="n">
-        <v>746610.6047132554</v>
-      </c>
-      <c r="H2" t="n">
-        <v>746610.6047132557</v>
-      </c>
-      <c r="I2" t="n">
-        <v>746610.6047132555</v>
       </c>
       <c r="J2" t="n">
         <v>746610.6047132552</v>
@@ -26343,16 +26343,16 @@
         <v>746610.6047132555</v>
       </c>
       <c r="L2" t="n">
-        <v>746610.6047132554</v>
+        <v>746610.6047132553</v>
       </c>
       <c r="M2" t="n">
+        <v>746610.6047132553</v>
+      </c>
+      <c r="N2" t="n">
+        <v>746610.6047132553</v>
+      </c>
+      <c r="O2" t="n">
         <v>746610.6047132555</v>
-      </c>
-      <c r="N2" t="n">
-        <v>746610.6047132557</v>
-      </c>
-      <c r="O2" t="n">
-        <v>746610.6047132553</v>
       </c>
       <c r="P2" t="n">
         <v>746610.6047132553</v>
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925931</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>124208.5107080584</v>
+        <v>124208.5107080585</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26438,28 +26438,28 @@
         <v>5067.592601670437</v>
       </c>
       <c r="I4" t="n">
+        <v>5067.592601670438</v>
+      </c>
+      <c r="J4" t="n">
+        <v>5067.59260167042</v>
+      </c>
+      <c r="K4" t="n">
+        <v>5067.592601670438</v>
+      </c>
+      <c r="L4" t="n">
+        <v>5067.592601670423</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5067.592601670345</v>
+      </c>
+      <c r="N4" t="n">
+        <v>5067.592601670445</v>
+      </c>
+      <c r="O4" t="n">
         <v>5067.592601670437</v>
       </c>
-      <c r="J4" t="n">
+      <c r="P4" t="n">
         <v>5067.592601670437</v>
-      </c>
-      <c r="K4" t="n">
-        <v>5067.592601670437</v>
-      </c>
-      <c r="L4" t="n">
-        <v>5067.592601670437</v>
-      </c>
-      <c r="M4" t="n">
-        <v>5067.59260167056</v>
-      </c>
-      <c r="N4" t="n">
-        <v>5067.592601670519</v>
-      </c>
-      <c r="O4" t="n">
-        <v>5067.592601670476</v>
-      </c>
-      <c r="P4" t="n">
-        <v>5067.59260167048</v>
       </c>
     </row>
     <row r="5">
@@ -26524,46 +26524,46 @@
         <v>-114427.8260812233</v>
       </c>
       <c r="C6" t="n">
+        <v>475540.0531333211</v>
+      </c>
+      <c r="D6" t="n">
         <v>475540.0531333213</v>
       </c>
-      <c r="D6" t="n">
-        <v>475540.0531333211</v>
-      </c>
       <c r="E6" t="n">
-        <v>-304299.6747243878</v>
+        <v>-303987.0333954666</v>
       </c>
       <c r="F6" t="n">
-        <v>640073.103033321</v>
+        <v>640385.7443622424</v>
       </c>
       <c r="G6" t="n">
-        <v>640073.1030333207</v>
+        <v>640385.7443622421</v>
       </c>
       <c r="H6" t="n">
-        <v>640073.1030333212</v>
+        <v>640385.7443622422</v>
       </c>
       <c r="I6" t="n">
-        <v>640073.1030333212</v>
+        <v>640385.7443622423</v>
       </c>
       <c r="J6" t="n">
-        <v>463649.8838407277</v>
+        <v>463962.5251696488</v>
       </c>
       <c r="K6" t="n">
-        <v>640073.1030333211</v>
+        <v>640385.7443622424</v>
       </c>
       <c r="L6" t="n">
-        <v>640073.103033321</v>
+        <v>640385.7443622422</v>
       </c>
       <c r="M6" t="n">
-        <v>515864.5923252625</v>
+        <v>516177.2336541837</v>
       </c>
       <c r="N6" t="n">
-        <v>640073.1030333214</v>
+        <v>640385.7443622423</v>
       </c>
       <c r="O6" t="n">
-        <v>640073.1030333209</v>
+        <v>640385.7443622424</v>
       </c>
       <c r="P6" t="n">
-        <v>640073.1030333207</v>
+        <v>640385.7443622422</v>
       </c>
     </row>
   </sheetData>
@@ -26718,13 +26718,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26773,13 +26773,13 @@
         <v>1367.975500341674</v>
       </c>
       <c r="N3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="O3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="P3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
     </row>
     <row r="4">
@@ -26822,10 +26822,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26940,7 +26940,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26974,16 +26974,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450922</v>
+        <v>498.4210153450929</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,16 +27381,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>10.84197571304912</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>94.04152607450891</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27399,7 +27399,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27435,7 +27435,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27621,22 +27621,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>310.0417415363283</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,19 +27663,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>40.58919886244223</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27779,13 +27779,13 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>19.88405377167442</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>190.0743229399511</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27855,13 +27855,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>28.44342906498781</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>44.47535211858207</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27915,7 +27915,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28010,25 +28010,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>125.5668012208408</v>
       </c>
       <c r="I10" t="n">
         <v>134.9656217923382</v>
@@ -28076,10 +28076,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>153.0517176144022</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -29985,25 +29985,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>-7.240552984763654e-14</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>-7.240552984763654e-14</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>-1.519060739265741e-12</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>9.65407064635154e-14</v>
+        <v>-7.240552984763654e-14</v>
       </c>
       <c r="H35" t="n">
-        <v>9.65407064635154e-14</v>
+        <v>-7.240552984763654e-14</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30036,22 +30036,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>2.411577144875051e-12</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>9.65407064635154e-14</v>
+        <v>-7.240552984763654e-14</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>-7.240552984763654e-14</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>-7.240552984763654e-14</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -30222,13 +30222,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -30237,10 +30237,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.607718096583367e-12</v>
+        <v>-7.240552984763654e-14</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>-7.240552984763654e-14</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30279,7 +30279,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>-7.240552984763654e-14</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -30513,7 +30513,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>8.682195192673605e-13</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -31852,10 +31852,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O12" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -32080,7 +32080,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
@@ -32089,16 +32089,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>139.5228722182831</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,31 +32305,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>326.7634969305194</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32554,19 +32554,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>175.6052721551105</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32794,25 +32794,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>481.4297026814658</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33028,37 +33028,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>213.1625787491746</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33268,34 +33268,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>171.7382405950817</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33505,34 +33505,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>441.0292693655512</v>
+        <v>248.7449369209194</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33739,22 +33739,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>171.7382405950817</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162558</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,34 +33964,34 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659448</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521099</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422584</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>339.3493584601604</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862118</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071782</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437241</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>391.925066926462</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34000,10 +34000,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
         <v>0.1935814387275954</v>
@@ -34049,28 +34049,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
         <v>206.5643005515927</v>
@@ -34079,7 +34079,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162558</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,31 +34201,31 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659448</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521099</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>175.6052721551119</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.883274947307</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862118</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071782</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437241</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34237,10 +34237,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
         <v>0.1935814387275954</v>
@@ -34286,28 +34286,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
         <v>206.5643005515927</v>
@@ -34316,7 +34316,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162558</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659448</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521099</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422584</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.883274947307</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>416.4300581532633</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437241</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485289</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
         <v>0.1935814387275954</v>
@@ -34523,28 +34523,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
         <v>206.5643005515927</v>
@@ -34553,7 +34553,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
@@ -34783,7 +34783,7 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>365.2844632307148</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,10 +35263,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>515.9012490932197</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262123</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735647</v>
@@ -35500,10 +35500,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O12" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35728,7 +35728,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
@@ -35737,16 +35737,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>8.181160134949776</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,22 +35962,22 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,19 +36202,19 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>37.76383318075146</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36442,25 +36442,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>339.2956687594475</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193505</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,28 +36676,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>73.18080466315305</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36916,22 +36916,22 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37153,22 +37153,22 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>302.474889585677</v>
+        <v>110.1905571410452</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,22 +37387,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396418</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367768</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902944</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243157</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924725</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902418</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,25 +37621,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678994</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>200.7949786802862</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238449</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992796</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096348</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396418</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367768</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902944</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243157</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924725</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,22 +37858,22 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>37.7638331807529</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674328</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238449</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992796</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096348</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396418</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367768</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902975</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243157</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924725</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678994</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674328</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>274.296024231245</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992796</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625074</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096348</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
